--- a/results/ROI_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>736.2352084334483</v>
+        <v>378.3757462911901</v>
       </c>
       <c r="H2">
-        <v>148.6334790573788</v>
+        <v>49.18455365402666</v>
       </c>
       <c r="I2">
-        <v>587.6017293760694</v>
+        <v>329.1911926371635</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>400.6887490636194</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>0.8873674333989817</v>
+        <v>0.8215633541157805</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>472.2826626326101</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>71.59391356899059</v>
       </c>
       <c r="Q2">
-        <v>1.613026976146464</v>
+        <v>1.886567603515629</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>265.6219911154639</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>6.596687331214278</v>
       </c>
       <c r="T2">
-        <v>4.95336052888347</v>
+        <v>7.692979160749447</v>
       </c>
       <c r="U2">
-        <v>1.600066240959757</v>
+        <v>2.040308115614354</v>
       </c>
       <c r="V2">
-        <v>349.7783172599586</v>
+        <v>228.8395486539832</v>
       </c>
       <c r="W2">
-        <v>356.6921074414965</v>
+        <v>615.1026441804025</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>543.6050877539466</v>
       </c>
       <c r="Z2">
-        <v>1.26437929150281</v>
+        <v>1.131524811001802</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>921.7699499684304</v>
+        <v>535.0316404429279</v>
       </c>
       <c r="H3">
-        <v>121.3652670232189</v>
+        <v>36.25831911657687</v>
       </c>
       <c r="I3">
-        <v>800.4046829452116</v>
+        <v>498.773321326351</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>803.9741864503635</v>
+        <v>508.6532771735046</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.9955601764766706</v>
+        <v>0.9805762465503914</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>551.4561814957559</v>
       </c>
       <c r="P3">
-        <v>125.543651112756</v>
+        <v>42.80290432225114</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.555956423938099</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>399.2509189078392</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>12.88361596549608</v>
       </c>
       <c r="T3">
-        <v>7.595006154372674</v>
+        <v>14.7561071080738</v>
       </c>
       <c r="U3">
-        <v>2.027490946366391</v>
+        <v>2.691657038319755</v>
       </c>
       <c r="V3">
-        <v>554.3377028522957</v>
+        <v>401.1783614785732</v>
       </c>
       <c r="W3">
-        <v>154.8357477014018</v>
+        <v>456.4671093202624</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>446.5871534731088</v>
       </c>
       <c r="Z3">
-        <v>1.023597488812646</v>
+        <v>1.02212324239584</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>890.0532216241061</v>
+        <v>506.0430325706586</v>
       </c>
       <c r="H4">
-        <v>72.74237007858669</v>
+        <v>22.00775410058862</v>
       </c>
       <c r="I4">
-        <v>817.3108515455194</v>
+        <v>484.03527847007</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>551.9463488449119</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.8965865203635704</v>
+        <v>0.8769607399035014</v>
       </c>
       <c r="O4">
-        <v>1040.112745087449</v>
+        <v>614.5437998655553</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>62.59745102064366</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.284155644951589</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>408.9640277365278</v>
       </c>
       <c r="S4">
-        <v>8.092236412478135</v>
+        <v>9.817393357804432</v>
       </c>
       <c r="T4">
-        <v>12.2356918074369</v>
+        <v>22.99385163328065</v>
       </c>
       <c r="U4">
-        <v>2.504357238609313</v>
+        <v>3.135226859900566</v>
       </c>
       <c r="V4">
-        <v>635.1379704856133</v>
+        <v>415.0359766878178</v>
       </c>
       <c r="W4">
-        <v>308.397703073209</v>
+        <v>641.6732761486584</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>573.7622057738165</v>
       </c>
       <c r="Z4">
-        <v>1.440249409889448</v>
+        <v>1.118361003376394</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>869.6355312704286</v>
+        <v>344.9822972937001</v>
       </c>
       <c r="H5">
-        <v>117.9108935677587</v>
+        <v>36.05411150522488</v>
       </c>
       <c r="I5">
-        <v>751.72463770267</v>
+        <v>308.9281857884753</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>476.1118330288332</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.9353878305536016</v>
+        <v>0.6488563491967793</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>545.1922215644006</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>69.08038853556735</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>2.06586755490551</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>333.4008996729381</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>7.892141794826443</v>
       </c>
       <c r="T5">
-        <v>7.375362063308288</v>
+        <v>9.568459265559937</v>
       </c>
       <c r="U5">
-        <v>1.998144994350783</v>
+        <v>2.258472196219342</v>
       </c>
       <c r="V5">
-        <v>516.1215759408251</v>
+        <v>227.500977394533</v>
       </c>
       <c r="W5">
-        <v>293.4682559862765</v>
+        <v>736.2647079004712</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>569.0810606601133</v>
       </c>
       <c r="Z5">
-        <v>1.214974786703505</v>
+        <v>1.29377826604602</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="H6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="I6">
-        <v>848.7062434516237</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="Q6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="T6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="U6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="V6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="W6">
-        <v>179.3224487962221</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="Z6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1015.337390270881</v>
+        <v>533.9500626053931</v>
       </c>
       <c r="H7">
-        <v>125.733076056684</v>
+        <v>34.16891376088656</v>
       </c>
       <c r="I7">
-        <v>889.6043142141968</v>
+        <v>499.7811488445066</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>536.5660016271825</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999998</v>
+        <v>0.9314439366804407</v>
       </c>
       <c r="O7">
-        <v>1015.337390270881</v>
+        <v>588.9215173437891</v>
       </c>
       <c r="P7">
-        <v>125.733076056684</v>
+        <v>52.3555157166066</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.420235633409122</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>409.8533168843398</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>11.24850952727775</v>
       </c>
       <c r="T7">
-        <v>8.075340412519122</v>
+        <v>15.62677895885031</v>
       </c>
       <c r="U7">
-        <v>2.088815024569283</v>
+        <v>2.748986042508083</v>
       </c>
       <c r="V7">
-        <v>626.9711758616828</v>
+        <v>405.851281828167</v>
       </c>
       <c r="W7">
-        <v>160.9540012449156</v>
+        <v>550.7771666146059</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>513.99231383193</v>
       </c>
       <c r="Z7">
-        <v>1.000000000000001</v>
+        <v>1.071566931630624</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>962.6550425110918</v>
+        <v>373.6130620585966</v>
       </c>
       <c r="H8">
-        <v>110.5122115857555</v>
+        <v>25.2700312462246</v>
       </c>
       <c r="I8">
-        <v>852.1428309253363</v>
+        <v>348.343030812372</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>522.2771770554918</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.9768953844972688</v>
+        <v>0.6669696592454405</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>658.9055008379647</v>
       </c>
       <c r="P8">
-        <v>119.0817021677646</v>
+        <v>136.6283237824729</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>1.573315852424747</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>307.317669358306</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>4.822612783327515</v>
       </c>
       <c r="T8">
-        <v>8.710847685498436</v>
+        <v>14.78482786262543</v>
       </c>
       <c r="U8">
-        <v>2.164569109377771</v>
+        <v>2.693601510532939</v>
       </c>
       <c r="V8">
-        <v>612.9315115177898</v>
+        <v>280.2756364763268</v>
       </c>
       <c r="W8">
-        <v>250.2358848544125</v>
+        <v>754.0356849673767</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>580.1015387242569</v>
       </c>
       <c r="Z8">
-        <v>1.087595302375291</v>
+        <v>1.299833968076745</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>863.3551773428306</v>
+        <v>374.5794776282272</v>
       </c>
       <c r="H9">
-        <v>116.4639985646945</v>
+        <v>23.80281976330317</v>
       </c>
       <c r="I9">
-        <v>746.8911787781361</v>
+        <v>350.7766578649241</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>440.1285578452625</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.9625462223219923</v>
+        <v>0.7969868158117742</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>563.1137811743922</v>
       </c>
       <c r="P9">
-        <v>203.7138464223749</v>
+        <v>122.9852233291296</v>
       </c>
       <c r="Q9">
-        <v>1.570496848917593</v>
+        <v>1.521417493101302</v>
       </c>
       <c r="R9">
-        <v>456.0216174398542</v>
+        <v>253.0166876793543</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.578710888440661</v>
       </c>
       <c r="T9">
-        <v>7.413064878270052</v>
+        <v>15.73676906152593</v>
       </c>
       <c r="U9">
-        <v>2.003243967595013</v>
+        <v>2.755999952638198</v>
       </c>
       <c r="V9">
-        <v>513.5853762114176</v>
+        <v>285.1760877246049</v>
       </c>
       <c r="W9">
-        <v>315.4059563350651</v>
+        <v>711.5204772482771</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>622.1685772679386</v>
       </c>
       <c r="Z9">
-        <v>1.101494834263667</v>
+        <v>1.143613649491428</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>669.7928056084396</v>
+        <v>252.3673843223729</v>
       </c>
       <c r="H10">
-        <v>123.4806954391039</v>
+        <v>25.58833825248012</v>
       </c>
       <c r="I10">
-        <v>546.3121101693357</v>
+        <v>226.7790460698928</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>392.6362359338016</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.8001569680573953</v>
+        <v>0.5775805320936495</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>460.4440461525583</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>67.8078102187566</v>
       </c>
       <c r="Q10">
-        <v>1.506230108837336</v>
+        <v>1.915513958307733</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>262.7494289774917</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>6.790427897127297</v>
       </c>
       <c r="T10">
-        <v>5.424271407175195</v>
+        <v>9.86259372657435</v>
       </c>
       <c r="U10">
-        <v>1.690883587582243</v>
+        <v>2.288749189455034</v>
       </c>
       <c r="V10">
-        <v>337.5206288681135</v>
+        <v>168.2137576350277</v>
       </c>
       <c r="W10">
-        <v>420.4862853271546</v>
+        <v>740.0193494265975</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>574.1621595626888</v>
       </c>
       <c r="Z10">
-        <v>1.480365430255438</v>
+        <v>1.288868200562423</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>745.5803326637639</v>
+        <v>318.8391634999649</v>
       </c>
       <c r="H11">
-        <v>96.96657080285601</v>
+        <v>23.06168370053223</v>
       </c>
       <c r="I11">
-        <v>648.6137618609079</v>
+        <v>295.7774797994326</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>391.3209032251618</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.8622049635208999</v>
+        <v>0.7558438032870568</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>515.4063095281165</v>
       </c>
       <c r="P11">
-        <v>125.6493745039628</v>
+        <v>124.0854063029547</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.423985451119811</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>214.6250899534638</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>4.153641631875316</v>
       </c>
       <c r="T11">
-        <v>7.689045064609049</v>
+        <v>13.82549373411996</v>
       </c>
       <c r="U11">
-        <v>2.03979659695224</v>
+        <v>2.626514259907768</v>
       </c>
       <c r="V11">
-        <v>450.8216807191137</v>
+        <v>235.2056387025022</v>
       </c>
       <c r="W11">
-        <v>370.1691516502939</v>
+        <v>723.0054337117691</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>627.4620102860399</v>
       </c>
       <c r="Z11">
-        <v>1.388952272799056</v>
+        <v>1.152269654352738</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>834.8179380411954</v>
+        <v>346.4738701005855</v>
       </c>
       <c r="H12">
-        <v>84.93688281274189</v>
+        <v>13.19739731582938</v>
       </c>
       <c r="I12">
-        <v>749.8810552284535</v>
+        <v>333.2764727847561</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>422.7617296869428</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.9622053955064004</v>
+        <v>0.7883316993511902</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>459.1092285496929</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>36.3474988627501</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>2.536162757911322</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>330.5785567280119</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>12.63110923486954</v>
       </c>
       <c r="T12">
-        <v>9.828685847603998</v>
+        <v>26.25319688488984</v>
       </c>
       <c r="U12">
-        <v>2.28530523728756</v>
+        <v>3.26778776771335</v>
       </c>
       <c r="V12">
-        <v>555.7743520976147</v>
+        <v>290.1501792704358</v>
       </c>
       <c r="W12">
-        <v>230.0407354186418</v>
+        <v>646.6453178623392</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>557.1600609601526</v>
       </c>
       <c r="Z12">
-        <v>1.146843143944675</v>
+        <v>1.160609604263408</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>966.9138898746444</v>
+        <v>443.7766035327843</v>
       </c>
       <c r="H13">
-        <v>113.0286317602019</v>
+        <v>28.45567608472152</v>
       </c>
       <c r="I13">
-        <v>853.8852581144424</v>
+        <v>415.3209274480628</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>559.5363619017139</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.9716422116992987</v>
+        <v>0.7422590482529114</v>
       </c>
       <c r="O13">
-        <v>1010.403077700276</v>
+        <v>602.5605061983042</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>43.02414429659054</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.639426632164311</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>445.9772896192123</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>14.00517119049487</v>
       </c>
       <c r="T13">
-        <v>8.554592538340366</v>
+        <v>15.59536319613428</v>
       </c>
       <c r="U13">
-        <v>2.146468277728338</v>
+        <v>2.746973639056564</v>
       </c>
       <c r="V13">
-        <v>611.2728855661313</v>
+        <v>337.1539353618004</v>
       </c>
       <c r="W13">
-        <v>220.5047895642272</v>
+        <v>659.0691202306068</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>514.8536857769557</v>
       </c>
       <c r="Z13">
-        <v>1.127418546153779</v>
+        <v>1.280109550417258</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>946.6155373213809</v>
+        <v>523.222960918493</v>
       </c>
       <c r="H14">
-        <v>125.7806893058764</v>
+        <v>41.53218095927446</v>
       </c>
       <c r="I14">
-        <v>820.8348480155045</v>
+        <v>481.6907799592185</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>576.3982978674983</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.971924995920204</v>
+        <v>0.8356908438857829</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>650.3515440062891</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>73.95324613879065</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>2.174079969029318</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>415.618026792459</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>8.794090563458859</v>
       </c>
       <c r="T14">
-        <v>7.525921049926662</v>
+        <v>12.59801312701478</v>
       </c>
       <c r="U14">
-        <v>2.018353201806185</v>
+        <v>2.53353911319116</v>
       </c>
       <c r="V14">
-        <v>566.9649910295998</v>
+        <v>376.4673750427635</v>
       </c>
       <c r="W14">
-        <v>244.024553857426</v>
+        <v>583.1686219137119</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>488.4611040054322</v>
       </c>
       <c r="Z14">
-        <v>1.107621958767444</v>
+        <v>1.193889579194061</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>1044.968382506549</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="H15">
-        <v>142.8627227836758</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="I15">
-        <v>902.1056597228737</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.9679185393523793</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="P15">
-        <v>163.636083495897</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="T15">
-        <v>7.314492977211778</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="U15">
-        <v>1.989857719316844</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="V15">
-        <v>617.8291679891541</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="W15">
-        <v>245.4431134811477</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="Z15">
-        <v>1.138719908839129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>709.8844386976238</v>
+        <v>345.9535627495395</v>
       </c>
       <c r="H16">
-        <v>68.88859250014102</v>
+        <v>20.79493638603721</v>
       </c>
       <c r="I16">
-        <v>640.9958461974827</v>
+        <v>325.1586263635023</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>508.3516510218024</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.8207947741635083</v>
+        <v>0.6396332651028545</v>
       </c>
       <c r="O16">
-        <v>1028.066037583965</v>
+        <v>632.4080070080846</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>124.0563559862822</v>
       </c>
       <c r="Q16">
-        <v>1.425557773019891</v>
+        <v>1.628798820439356</v>
       </c>
       <c r="R16">
-        <v>428.660485688645</v>
+        <v>306.2888047233412</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>5.097747729088661</v>
       </c>
       <c r="T16">
-        <v>10.30481844575603</v>
+        <v>16.63643284726903</v>
       </c>
       <c r="U16">
-        <v>2.332611596114057</v>
+        <v>2.811595040252754</v>
       </c>
       <c r="V16">
-        <v>480.3055164916779</v>
+        <v>266.6916863581485</v>
       </c>
       <c r="W16">
-        <v>407.2611996096398</v>
+        <v>723.0984194436203</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>539.9053947853201</v>
       </c>
       <c r="Z16">
-        <v>1.523544148339501</v>
+        <v>1.339305786583485</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1029.721219445428</v>
+        <v>496.794992524222</v>
       </c>
       <c r="H17">
-        <v>129.047148405853</v>
+        <v>28.16819565386837</v>
       </c>
       <c r="I17">
-        <v>900.674071039575</v>
+        <v>468.6267968703537</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>531.2304749017627</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>0.9906977547780232</v>
+        <v>0.8821534513000484</v>
       </c>
       <c r="O17">
-        <v>1052.346607257195</v>
+        <v>633.5311703956719</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>102.300695493909</v>
       </c>
       <c r="Q17">
-        <v>1.994426791048608</v>
+        <v>1.823392730510275</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>344.696130412024</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>6.192833463516311</v>
       </c>
       <c r="T17">
-        <v>7.979418624632888</v>
+        <v>17.63673465737223</v>
       </c>
       <c r="U17">
-        <v>2.076865554751703</v>
+        <v>2.86998392331736</v>
       </c>
       <c r="V17">
-        <v>632.6604935765278</v>
+        <v>387.7845281948935</v>
       </c>
       <c r="W17">
-        <v>216.2169890549362</v>
+        <v>648.2642632241575</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>585.6605851927485</v>
       </c>
       <c r="Z17">
-        <v>1.040705422585323</v>
+        <v>1.10689412880808</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>948.7061235429094</v>
+        <v>524.0697766251413</v>
       </c>
       <c r="H18">
-        <v>114.4511249471861</v>
+        <v>35.80807703805163</v>
       </c>
       <c r="I18">
-        <v>834.2549985957234</v>
+        <v>488.2616995870897</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>535.7339030297123</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999996</v>
+        <v>0.9113884651052413</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>587.2049647591274</v>
       </c>
       <c r="P18">
-        <v>114.4511249471861</v>
+        <v>51.4710617294152</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.434354190662392</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>410.4351082108677</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>11.40844865112906</v>
       </c>
       <c r="T18">
-        <v>8.289181290098229</v>
+        <v>14.63551857499178</v>
       </c>
       <c r="U18">
-        <v>2.114951205536611</v>
+        <v>2.683451353406879</v>
       </c>
       <c r="V18">
-        <v>592.1964539136509</v>
+        <v>392.1724667964323</v>
       </c>
       <c r="W18">
-        <v>278.766138075437</v>
+        <v>624.7594370840707</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>577.287233641448</v>
       </c>
       <c r="Z18">
-        <v>1.000000000000001</v>
+        <v>1.082233246599227</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>875.852897326596</v>
+        <v>362.2859290093438</v>
       </c>
       <c r="H19">
-        <v>110.0006543611887</v>
+        <v>23.27351111101818</v>
       </c>
       <c r="I19">
-        <v>765.8522429654073</v>
+        <v>339.0124178983256</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>477.5124348958979</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.9728649388664012</v>
+        <v>0.7099551616330859</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>569.5295319469429</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>92.01709705104507</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.8228362401689</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>309.7803356761141</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>6.189388170233247</v>
       </c>
       <c r="T19">
-        <v>7.962251701255525</v>
+        <v>15.56644922552446</v>
       </c>
       <c r="U19">
-        <v>2.074711836896276</v>
+        <v>2.745117907527457</v>
       </c>
       <c r="V19">
-        <v>537.632583295913</v>
+        <v>275.1238857764304</v>
       </c>
       <c r="W19">
-        <v>275.9973801890213</v>
+        <v>702.8372052561031</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>254.6362984993215</v>
+        <v>564.3371882585307</v>
       </c>
       <c r="Z19">
-        <v>1.083888596463229</v>
+        <v>1.245420680896407</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>998.444561367814</v>
+        <v>544.0721085177216</v>
       </c>
       <c r="H20">
-        <v>143.6211987556318</v>
+        <v>47.52933661296701</v>
       </c>
       <c r="I20">
-        <v>854.8233626121821</v>
+        <v>496.5427719047546</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>535.7216796635391</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.9723812927795025</v>
+        <v>0.9268670482340925</v>
       </c>
       <c r="O20">
-        <v>1027.540691428226</v>
+        <v>596.1580166967849</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>60.43633703324576</v>
       </c>
       <c r="Q20">
-        <v>1.934758617338814</v>
+        <v>2.28891523005202</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>397.388027379586</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>9.86423145348536</v>
       </c>
       <c r="T20">
-        <v>6.951930286187379</v>
+        <v>11.44707978880747</v>
       </c>
       <c r="U20">
-        <v>1.939019360034126</v>
+        <v>2.437734657193122</v>
       </c>
       <c r="V20">
-        <v>576.3390777137029</v>
+        <v>380.678860809927</v>
       </c>
       <c r="W20">
-        <v>209.7128561382506</v>
+        <v>567.9934468456781</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>185.4331663164302</v>
+        <v>528.8145390868935</v>
       </c>
       <c r="Z20">
-        <v>1.130934990240034</v>
+        <v>1.074088181891585</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>831.0988478166014</v>
+        <v>439.9008699484683</v>
       </c>
       <c r="H21">
-        <v>119.4532791138085</v>
+        <v>51.64135446000994</v>
       </c>
       <c r="I21">
-        <v>711.6455687027928</v>
+        <v>388.2595154884584</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>447.0576688914981</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.9568206424939946</v>
+        <v>0.868477475067517</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>520.7135389543884</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>73.65587006289044</v>
       </c>
       <c r="Q21">
-        <v>1.687213173207651</v>
+        <v>1.955796219403232</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>303.0017966856411</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>7.069545692825046</v>
       </c>
       <c r="T21">
-        <v>6.957522254577674</v>
+        <v>8.518383658761682</v>
       </c>
       <c r="U21">
-        <v>1.939823413058524</v>
+        <v>2.14222661143079</v>
       </c>
       <c r="V21">
-        <v>479.9273011112123</v>
+        <v>277.6320317138949</v>
       </c>
       <c r="W21">
-        <v>285.572394537836</v>
+        <v>608.9584477521705</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>550.1602943491307</v>
       </c>
       <c r="Z21">
-        <v>1.126708166985619</v>
+        <v>1.106874585474405</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>926.0395349805377</v>
+        <v>609.8456741314561</v>
       </c>
       <c r="H22">
-        <v>14.7800817787106</v>
+        <v>5.768405174700914</v>
       </c>
       <c r="I22">
-        <v>911.2594532018271</v>
+        <v>604.0772689567552</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>1000.729360832908</v>
+        <v>644.5780598555782</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.910595300654899</v>
+        <v>0.9371669725961547</v>
       </c>
       <c r="O22">
-        <v>1036.769731819194</v>
+        <v>669.3754609036663</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>24.79740104808792</v>
       </c>
       <c r="Q22">
-        <v>3.359225404900346</v>
+        <v>3.295606278528671</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>562.8555892703064</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>26.99377485590493</v>
       </c>
       <c r="T22">
-        <v>62.65456097234968</v>
+        <v>105.7217126158403</v>
       </c>
       <c r="U22">
-        <v>4.137636479527814</v>
+        <v>4.660810289149337</v>
       </c>
       <c r="V22">
-        <v>850.1048476638298</v>
+        <v>577.1918267665269</v>
       </c>
       <c r="W22">
-        <v>125.5102786173676</v>
+        <v>432.6924628624395</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>392.1916719636165</v>
       </c>
       <c r="Z22">
-        <v>3.482491305794972</v>
+        <v>1.103267850375416</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>893.937389214566</v>
+        <v>410.423332401177</v>
       </c>
       <c r="H23">
-        <v>15.80035988701322</v>
+        <v>4.418906006300054</v>
       </c>
       <c r="I23">
-        <v>878.1370293275528</v>
+        <v>406.004426394877</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>636.3213556664277</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.8923082739857393</v>
+        <v>0.6380493484611454</v>
       </c>
       <c r="O23">
-        <v>1022.390911310949</v>
+        <v>644.405082190731</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>8.083726524303541</v>
       </c>
       <c r="Q23">
-        <v>3.285168401042013</v>
+        <v>4.37847456825939</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>600.9269646630006</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>79.71633877684279</v>
       </c>
       <c r="T23">
-        <v>56.57702708084008</v>
+        <v>92.87894601424757</v>
       </c>
       <c r="U23">
-        <v>4.035603020852801</v>
+        <v>4.531296989502763</v>
       </c>
       <c r="V23">
-        <v>814.3730492369608</v>
+        <v>385.9810509116339</v>
       </c>
       <c r="W23">
-        <v>148.7708294428099</v>
+        <v>620.9034323754857</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>390.586503103935</v>
       </c>
       <c r="Z23">
-        <v>3.476813763060075</v>
+        <v>1.589669452070809</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>942.2309305011347</v>
+        <v>501.1636451416302</v>
       </c>
       <c r="H24">
-        <v>23.67851973232619</v>
+        <v>5.95923029688861</v>
       </c>
       <c r="I24">
-        <v>918.5524107688085</v>
+        <v>495.2044148447416</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>608.129293294249</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.9516415523136812</v>
+        <v>0.8143077801140099</v>
       </c>
       <c r="O24">
-        <v>1023.306255524124</v>
+        <v>623.4004120167189</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>15.27111872246999</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>3.709225648936593</v>
       </c>
       <c r="R24">
-        <v>798.6053601437003</v>
+        <v>551.4852680409074</v>
       </c>
       <c r="S24">
-        <v>17.61986528614344</v>
+        <v>40.82218358367189</v>
       </c>
       <c r="T24">
-        <v>39.79264502817674</v>
+        <v>84.09872083703397</v>
       </c>
       <c r="U24">
-        <v>3.683682096926068</v>
+        <v>4.431991356839851</v>
       </c>
       <c r="V24">
-        <v>831.3282715491279</v>
+        <v>468.793157675513</v>
       </c>
       <c r="W24">
-        <v>127.3241863213667</v>
+        <v>550.6721822454336</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>437.7473037959262</v>
       </c>
       <c r="Z24">
-        <v>1.578780183619766</v>
+        <v>1.257968187285859</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>781.0141908130315</v>
+        <v>478.2221813293194</v>
       </c>
       <c r="H25">
-        <v>13.61856425999912</v>
+        <v>4.360517202940642</v>
       </c>
       <c r="I25">
-        <v>767.3956265530325</v>
+        <v>473.8616641263788</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>677.9515171403351</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.799877930641852</v>
+        <v>0.6989609907876201</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>701.7509092685725</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>23.79939212823739</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.383918471436072</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>597.4163145086424</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>29.48608542131471</v>
       </c>
       <c r="T25">
-        <v>57.34923123335779</v>
+        <v>109.6709768755909</v>
       </c>
       <c r="U25">
-        <v>4.049159438661782</v>
+        <v>4.697484764141865</v>
       </c>
       <c r="V25">
-        <v>712.2518885386351</v>
+        <v>453.3782010017866</v>
       </c>
       <c r="W25">
-        <v>257.705558986088</v>
+        <v>551.2395214127416</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>347.1496683987854</v>
       </c>
       <c r="Z25">
-        <v>3.921846465477225</v>
+        <v>1.58790162167031</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>926.7358994610718</v>
+        <v>577.6449932484865</v>
       </c>
       <c r="H26">
-        <v>16.83935155942903</v>
+        <v>3.803949928506149</v>
       </c>
       <c r="I26">
-        <v>909.8965479016427</v>
+        <v>573.8410433199803</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>638.7183667834788</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.9489985702705915</v>
+        <v>0.8984257744297941</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>680.5706999701894</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>41.8523331867104</v>
       </c>
       <c r="Q26">
-        <v>3.218784900095323</v>
+        <v>2.788784164289214</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>522.0012427538251</v>
       </c>
       <c r="S26">
-        <v>24.99772698401636</v>
+        <v>16.26123678539133</v>
       </c>
       <c r="T26">
-        <v>55.03394214382057</v>
+        <v>151.8539949539593</v>
       </c>
       <c r="U26">
-        <v>4.007950124773777</v>
+        <v>5.02291949969992</v>
       </c>
       <c r="V26">
-        <v>842.4052667179196</v>
+        <v>554.7341090482046</v>
       </c>
       <c r="W26">
-        <v>93.83807155404179</v>
+        <v>429.8935761357043</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>365.0162526722057</v>
       </c>
       <c r="Z26">
-        <v>2.088163928371938</v>
+        <v>1.177738177378529</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>1013.87825301051</v>
+        <v>605.8637417092405</v>
       </c>
       <c r="H27">
-        <v>21.37586284103526</v>
+        <v>6.96271056472945</v>
       </c>
       <c r="I27">
-        <v>992.5023901694751</v>
+        <v>598.901031144511</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>663.2754464175723</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.9691259074529148</v>
+        <v>0.9029446731056381</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>690.9750963363987</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>27.69964991882632</v>
       </c>
       <c r="Q27">
-        <v>3.315467411707961</v>
+        <v>3.216684008280148</v>
       </c>
       <c r="R27">
-        <v>896.1616385931768</v>
+        <v>574.1744254887252</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>24.94526459219874</v>
       </c>
       <c r="T27">
-        <v>47.43098608698814</v>
+        <v>87.01550008100652</v>
       </c>
       <c r="U27">
-        <v>3.859275730037872</v>
+        <v>4.466086264636296</v>
       </c>
       <c r="V27">
-        <v>910.0070414984493</v>
+        <v>567.8049651267347</v>
       </c>
       <c r="W27">
-        <v>87.45804616575697</v>
+        <v>481.0594051907211</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>416.6849899176598</v>
       </c>
       <c r="Z27">
-        <v>1.566247258316541</v>
+        <v>1.154491802754359</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>923.1304655380359</v>
+        <v>426.1399976938355</v>
       </c>
       <c r="H28">
-        <v>24.17545169159135</v>
+        <v>3.029524242492707</v>
       </c>
       <c r="I28">
-        <v>898.9550138464446</v>
+        <v>423.1104734513428</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>695.8117986410916</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.8914985038044358</v>
+        <v>0.6080817748098986</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>730.0040201670332</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>34.19222152594156</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.061051863767357</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>591.1476352127619</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>21.3500026493798</v>
       </c>
       <c r="T28">
-        <v>38.18462121471413</v>
+        <v>140.6623494595988</v>
       </c>
       <c r="U28">
-        <v>3.642432848550781</v>
+        <v>4.946362333851416</v>
       </c>
       <c r="V28">
-        <v>810.8975544764397</v>
+        <v>408.1253488487871</v>
       </c>
       <c r="W28">
-        <v>159.4577373036578</v>
+        <v>635.3022776987596</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>362.6009525090108</v>
       </c>
       <c r="Z28">
-        <v>3.186049457940625</v>
+        <v>1.752070074010553</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>791.071260133076</v>
+        <v>463.1021980595326</v>
       </c>
       <c r="H29">
-        <v>13.53663483362124</v>
+        <v>3.010924169110885</v>
       </c>
       <c r="I29">
-        <v>777.5346252994547</v>
+        <v>460.0912738904217</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>578.3340644272032</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.8212988200160761</v>
+        <v>0.7955458655995092</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>606.8227363160931</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>28.48867188889009</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.058730185304895</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>491.194903781408</v>
       </c>
       <c r="S29">
-        <v>22.09861322418649</v>
+        <v>21.30049230384586</v>
       </c>
       <c r="T29">
-        <v>58.43928493721903</v>
+        <v>153.8073269365283</v>
       </c>
       <c r="U29">
-        <v>4.067988350962654</v>
+        <v>5.035700695316072</v>
       </c>
       <c r="V29">
-        <v>722.4677524850482</v>
+        <v>444.9291609584861</v>
       </c>
       <c r="W29">
-        <v>214.0496918575966</v>
+        <v>531.4930432666295</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>413.2502527298481</v>
       </c>
       <c r="Z29">
-        <v>4.77034707918654</v>
+        <v>1.286128779730184</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1017.3704227067</v>
+        <v>606.1073065320993</v>
       </c>
       <c r="H30">
-        <v>17.18095752786117</v>
+        <v>4.236577616276573</v>
       </c>
       <c r="I30">
-        <v>1000.189465178839</v>
+        <v>601.8707289158227</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>1017.159542863194</v>
+        <v>649.8648544697025</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.9833162085501495</v>
+        <v>0.9261475286380219</v>
       </c>
       <c r="O30">
-        <v>1055.333187833389</v>
+        <v>664.6292723477798</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>14.764417878077</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.807009311392282</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>593.6565781305769</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>45.01560967971903</v>
       </c>
       <c r="T30">
-        <v>59.21500132090431</v>
+        <v>143.0653138994754</v>
       </c>
       <c r="U30">
-        <v>4.081174910480379</v>
+        <v>4.963301266541461</v>
       </c>
       <c r="V30">
-        <v>930.0709723781027</v>
+        <v>580.843317867156</v>
       </c>
       <c r="W30">
-        <v>65.12314660673076</v>
+        <v>463.4418828697468</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>415.447757315867</v>
       </c>
       <c r="Z30">
-        <v>1.352419442086049</v>
+        <v>1.115523852779857</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1098.009586390024</v>
+        <v>748.0266990740787</v>
       </c>
       <c r="H31">
-        <v>14.47972343892466</v>
+        <v>4.674396162609115</v>
       </c>
       <c r="I31">
-        <v>1083.529862951099</v>
+        <v>743.3523029114696</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>779.614522362009</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.9515081548432872</v>
+        <v>0.9534869882353201</v>
       </c>
       <c r="O31">
-        <v>1178.020423444158</v>
+        <v>803.4367744481551</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>23.82225208614589</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.518278388924488</v>
       </c>
       <c r="R31">
-        <v>1005.186441801383</v>
+        <v>695.8012076718109</v>
       </c>
       <c r="S31">
-        <v>29.99761130605242</v>
+        <v>33.72631485649516</v>
       </c>
       <c r="T31">
-        <v>75.83083965805137</v>
+        <v>160.0263805318014</v>
       </c>
       <c r="U31">
-        <v>4.328505065552125</v>
+        <v>5.075338679966649</v>
       </c>
       <c r="V31">
-        <v>1020.85430669792</v>
+        <v>719.6281592618918</v>
       </c>
       <c r="W31">
-        <v>97.34211646386848</v>
+        <v>437.5196765034983</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>401.2574570529589</v>
       </c>
       <c r="Z31">
-        <v>2.310955000738211</v>
+        <v>1.090371453073714</v>
       </c>
     </row>
   </sheetData>

--- a/results/ROI_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>378.3757462911901</v>
+        <v>639.7423031144664</v>
       </c>
       <c r="H2">
-        <v>49.18455365402666</v>
+        <v>112.4940974670827</v>
       </c>
       <c r="I2">
-        <v>329.1911926371635</v>
+        <v>527.2482056473837</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>400.6887490636194</v>
+        <v>616.4973927706617</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.8215633541157805</v>
+        <v>0.8552318498506953</v>
       </c>
       <c r="O2">
-        <v>472.2826626326101</v>
+        <v>746.1224678182858</v>
       </c>
       <c r="P2">
-        <v>71.59391356899059</v>
+        <v>129.6250750476243</v>
       </c>
       <c r="Q2">
-        <v>1.886567603515629</v>
+        <v>1.750243507197239</v>
       </c>
       <c r="R2">
-        <v>265.6219911154639</v>
+        <v>389.6219467986023</v>
       </c>
       <c r="S2">
-        <v>6.596687331214278</v>
+        <v>5.756004133800195</v>
       </c>
       <c r="T2">
-        <v>7.692979160749447</v>
+        <v>5.686896624079888</v>
       </c>
       <c r="U2">
-        <v>2.040308115614354</v>
+        <v>1.738164690575465</v>
       </c>
       <c r="V2">
-        <v>228.8395486539832</v>
+        <v>331.7149375319457</v>
       </c>
       <c r="W2">
-        <v>615.1026441804025</v>
+        <v>417.0456311701823</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>543.6050877539466</v>
+        <v>327.7964440469043</v>
       </c>
       <c r="Z2">
-        <v>1.131524811001802</v>
+        <v>1.27227015040623</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>535.0316404429279</v>
+        <v>869.748884398427</v>
       </c>
       <c r="H3">
-        <v>36.25831911657687</v>
+        <v>98.70189958093408</v>
       </c>
       <c r="I3">
-        <v>498.773321326351</v>
+        <v>771.0469848174929</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>508.6532771735046</v>
+        <v>771.2411531845593</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.9805762465503914</v>
+        <v>0.9997482390997101</v>
       </c>
       <c r="O3">
-        <v>551.4561814957559</v>
+        <v>874.1214368550305</v>
       </c>
       <c r="P3">
-        <v>42.80290432225114</v>
+        <v>102.8802836704712</v>
       </c>
       <c r="Q3">
-        <v>2.555956423938099</v>
+        <v>2.139653291993667</v>
       </c>
       <c r="R3">
-        <v>399.2509189078392</v>
+        <v>551.1130155477933</v>
       </c>
       <c r="S3">
-        <v>12.88361596549608</v>
+        <v>8.496491316595405</v>
       </c>
       <c r="T3">
-        <v>14.7561071080738</v>
+        <v>8.81187584120654</v>
       </c>
       <c r="U3">
-        <v>2.691657038319755</v>
+        <v>2.176100339100316</v>
       </c>
       <c r="V3">
-        <v>401.1783614785732</v>
+        <v>556.2617476695769</v>
       </c>
       <c r="W3">
-        <v>456.4671093202624</v>
+        <v>184.1934458291205</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>446.5871534731088</v>
+        <v>183.9992774620541</v>
       </c>
       <c r="Z3">
-        <v>1.02212324239584</v>
+        <v>1.001055267008352</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>506.0430325706586</v>
+        <v>822.6918496719279</v>
       </c>
       <c r="H4">
-        <v>22.00775410058862</v>
+        <v>55.86913393030895</v>
       </c>
       <c r="I4">
-        <v>484.03527847007</v>
+        <v>766.8227157416189</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>551.9463488449119</v>
+        <v>863.4241931265074</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.8769607399035014</v>
+        <v>0.8881181716311549</v>
       </c>
       <c r="O4">
-        <v>614.5437998655553</v>
+        <v>975.083131777721</v>
       </c>
       <c r="P4">
-        <v>62.59745102064366</v>
+        <v>111.6589386512137</v>
       </c>
       <c r="Q4">
-        <v>2.284155644951589</v>
+        <v>2.167073696071329</v>
       </c>
       <c r="R4">
-        <v>408.9640277365278</v>
+        <v>621.4510442442198</v>
       </c>
       <c r="S4">
-        <v>9.817393357804432</v>
+        <v>8.732692102900639</v>
       </c>
       <c r="T4">
-        <v>22.99385163328065</v>
+        <v>14.72533744120953</v>
       </c>
       <c r="U4">
-        <v>3.135226859900566</v>
+        <v>2.689569645486251</v>
       </c>
       <c r="V4">
-        <v>415.0359766878178</v>
+        <v>616.558789003054</v>
       </c>
       <c r="W4">
-        <v>641.6732761486584</v>
+        <v>358.8858388771094</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>573.7622057738165</v>
+        <v>262.284361492221</v>
       </c>
       <c r="Z4">
-        <v>1.118361003376394</v>
+        <v>1.368308185952419</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>344.9822972937001</v>
+        <v>732.3839672004137</v>
       </c>
       <c r="H5">
-        <v>36.05411150522488</v>
+        <v>93.84246078988724</v>
       </c>
       <c r="I5">
-        <v>308.9281857884753</v>
+        <v>638.5415064105265</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>476.1118330288332</v>
+        <v>720.2451290567108</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.6488563491967793</v>
+        <v>0.8865613673039487</v>
       </c>
       <c r="O5">
-        <v>545.1922215644006</v>
+        <v>864.4555562860764</v>
       </c>
       <c r="P5">
-        <v>69.08038853556735</v>
+        <v>144.2104272293659</v>
       </c>
       <c r="Q5">
-        <v>2.06586755490551</v>
+        <v>1.790826360949313</v>
       </c>
       <c r="R5">
-        <v>333.4008996729381</v>
+        <v>461.9892944505995</v>
       </c>
       <c r="S5">
-        <v>7.892141794826443</v>
+        <v>5.994403961588468</v>
       </c>
       <c r="T5">
-        <v>9.568459265559937</v>
+        <v>7.804398574332119</v>
       </c>
       <c r="U5">
-        <v>2.258472196219342</v>
+        <v>2.054687494538704</v>
       </c>
       <c r="V5">
-        <v>227.500977394533</v>
+        <v>445.7245757688065</v>
       </c>
       <c r="W5">
-        <v>736.2647079004712</v>
+        <v>406.65138727842</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>569.0810606601133</v>
+        <v>324.9477646322357</v>
       </c>
       <c r="Z5">
-        <v>1.29377826604602</v>
+        <v>1.251436173868294</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="H6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="I6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866361</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866362</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="P6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="Q6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="R6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="S6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="T6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="U6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="V6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="W6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612097</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612096</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>533.9500626053931</v>
+        <v>953.794721103137</v>
       </c>
       <c r="H7">
-        <v>34.16891376088656</v>
+        <v>97.02740933693227</v>
       </c>
       <c r="I7">
-        <v>499.7811488445066</v>
+        <v>856.7673117662048</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>536.5660016271825</v>
+        <v>856.767311766205</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.9314439366804407</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O7">
-        <v>588.9215173437891</v>
+        <v>953.794721103137</v>
       </c>
       <c r="P7">
-        <v>52.3555157166066</v>
+        <v>97.02740933693227</v>
       </c>
       <c r="Q7">
-        <v>2.420235633409122</v>
+        <v>2.285454962181948</v>
       </c>
       <c r="R7">
-        <v>409.8533168843398</v>
+        <v>635.0155376294539</v>
       </c>
       <c r="S7">
-        <v>11.24850952727775</v>
+        <v>9.830157556727499</v>
       </c>
       <c r="T7">
-        <v>15.62677895885031</v>
+        <v>9.830157556727499</v>
       </c>
       <c r="U7">
-        <v>2.748986042508083</v>
+        <v>2.285454962181948</v>
       </c>
       <c r="V7">
-        <v>405.851281828167</v>
+        <v>635.0155376294539</v>
       </c>
       <c r="W7">
-        <v>550.7771666146059</v>
+        <v>193.7910036929077</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>513.99231383193</v>
+        <v>193.7910036929075</v>
       </c>
       <c r="Z7">
-        <v>1.071566931630624</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>373.6130620585966</v>
+        <v>827.2319216673664</v>
       </c>
       <c r="H8">
-        <v>25.2700312462246</v>
+        <v>72.9393735940115</v>
       </c>
       <c r="I8">
-        <v>348.343030812372</v>
+        <v>754.2925480733549</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>522.2771770554918</v>
+        <v>829.2238669710372</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.6669696592454405</v>
+        <v>0.9096368039050913</v>
       </c>
       <c r="O8">
-        <v>658.9055008379647</v>
+        <v>939.3028220279808</v>
       </c>
       <c r="P8">
-        <v>136.6283237824729</v>
+        <v>110.0789550569435</v>
       </c>
       <c r="Q8">
-        <v>1.573315852424747</v>
+        <v>2.143940039829358</v>
       </c>
       <c r="R8">
-        <v>307.317669358306</v>
+        <v>593.2211876818798</v>
       </c>
       <c r="S8">
-        <v>4.822612783327515</v>
+        <v>8.532991810669737</v>
       </c>
       <c r="T8">
-        <v>14.78482786262543</v>
+        <v>11.34136311989502</v>
       </c>
       <c r="U8">
-        <v>2.693601510532939</v>
+        <v>2.428456495651895</v>
       </c>
       <c r="V8">
-        <v>280.2756364763268</v>
+        <v>577.1624524801973</v>
       </c>
       <c r="W8">
-        <v>754.0356849673767</v>
+        <v>348.0861677063939</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>580.1015387242569</v>
+        <v>273.1548488087116</v>
       </c>
       <c r="Z8">
-        <v>1.299833968076745</v>
+        <v>1.274318099145866</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>374.5794776282272</v>
+        <v>715.8504707011058</v>
       </c>
       <c r="H9">
-        <v>23.80281976330317</v>
+        <v>73.62713926001337</v>
       </c>
       <c r="I9">
-        <v>350.7766578649241</v>
+        <v>642.2233314410925</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>440.1285578452625</v>
+        <v>704.7332243495372</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.7969868158117742</v>
+        <v>0.9112999206669434</v>
       </c>
       <c r="O9">
-        <v>563.1137811743922</v>
+        <v>868.9779672942063</v>
       </c>
       <c r="P9">
-        <v>122.9852233291296</v>
+        <v>164.2447429446693</v>
       </c>
       <c r="Q9">
-        <v>1.521417493101302</v>
+        <v>1.665960120424794</v>
       </c>
       <c r="R9">
-        <v>253.0166876793543</v>
+        <v>431.1080326142963</v>
       </c>
       <c r="S9">
-        <v>4.578710888440661</v>
+        <v>5.29075056963587</v>
       </c>
       <c r="T9">
-        <v>15.73676906152593</v>
+        <v>9.72264409422575</v>
       </c>
       <c r="U9">
-        <v>2.755999952638198</v>
+        <v>2.274457607634854</v>
       </c>
       <c r="V9">
-        <v>285.1760877246049</v>
+        <v>474.7615244227642</v>
       </c>
       <c r="W9">
-        <v>711.5204772482771</v>
+        <v>420.0738036721087</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>622.1685772679386</v>
+        <v>357.563910763664</v>
       </c>
       <c r="Z9">
-        <v>1.143613649491428</v>
+        <v>1.174821594200991</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>252.3673843223729</v>
+        <v>580.3573002096649</v>
       </c>
       <c r="H10">
-        <v>25.58833825248012</v>
+        <v>94.35659160090788</v>
       </c>
       <c r="I10">
-        <v>226.7790460698928</v>
+        <v>486.000708608757</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>392.6362359338016</v>
+        <v>631.8315273976423</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.5775805320936495</v>
+        <v>0.7691935073428097</v>
       </c>
       <c r="O10">
-        <v>460.4440461525583</v>
+        <v>799.3622001080968</v>
       </c>
       <c r="P10">
-        <v>67.8078102187566</v>
+        <v>167.5306727104545</v>
       </c>
       <c r="Q10">
-        <v>1.915513958307733</v>
+        <v>1.562647704670352</v>
       </c>
       <c r="R10">
-        <v>262.7494289774917</v>
+        <v>370.0401062247707</v>
       </c>
       <c r="S10">
-        <v>6.790427897127297</v>
+        <v>4.771437893582898</v>
       </c>
       <c r="T10">
-        <v>9.86259372657435</v>
+        <v>6.150681053257554</v>
       </c>
       <c r="U10">
-        <v>2.288749189455034</v>
+        <v>1.816562816054247</v>
       </c>
       <c r="V10">
-        <v>168.2137576350277</v>
+        <v>314.5960328569313</v>
       </c>
       <c r="W10">
-        <v>740.0193494265975</v>
+        <v>480.7976868877333</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>574.1621595626888</v>
+        <v>334.9668680988481</v>
       </c>
       <c r="Z10">
-        <v>1.288868200562423</v>
+        <v>1.435358934501698</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>318.8391634999649</v>
+        <v>654.1085680631721</v>
       </c>
       <c r="H11">
-        <v>23.06168370053223</v>
+        <v>75.77015763237121</v>
       </c>
       <c r="I11">
-        <v>295.7774797994326</v>
+        <v>578.3384104308009</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>391.3209032251618</v>
+        <v>669.8932766788364</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.7558438032870568</v>
+        <v>0.8633291758025372</v>
       </c>
       <c r="O11">
-        <v>515.4063095281165</v>
+        <v>872.1470592344257</v>
       </c>
       <c r="P11">
-        <v>124.0854063029547</v>
+        <v>202.2537825555894</v>
       </c>
       <c r="Q11">
-        <v>1.423985451119811</v>
+        <v>1.461434797460967</v>
       </c>
       <c r="R11">
-        <v>214.6250899534638</v>
+        <v>374.3125609339941</v>
       </c>
       <c r="S11">
-        <v>4.153641631875316</v>
+        <v>4.312142142482385</v>
       </c>
       <c r="T11">
-        <v>13.82549373411996</v>
+        <v>8.632799356665426</v>
       </c>
       <c r="U11">
-        <v>2.626514259907768</v>
+        <v>2.155568827545262</v>
       </c>
       <c r="V11">
-        <v>235.2056387025022</v>
+        <v>415.0106205802708</v>
       </c>
       <c r="W11">
-        <v>723.0054337117691</v>
+        <v>440.4445030804009</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>627.4620102860399</v>
+        <v>348.8896368323653</v>
       </c>
       <c r="Z11">
-        <v>1.152269654352738</v>
+        <v>1.262417843875443</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>346.4738701005855</v>
+        <v>644.5313002070011</v>
       </c>
       <c r="H12">
-        <v>13.19739731582938</v>
+        <v>37.68928637479678</v>
       </c>
       <c r="I12">
-        <v>333.2764727847561</v>
+        <v>606.8420138322043</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>422.7617296869428</v>
+        <v>748.3445673121389</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
-        <v>0.7883316993511902</v>
+        <v>0.8109125666694216</v>
       </c>
       <c r="O12">
-        <v>459.1092285496929</v>
+        <v>862.8958201944826</v>
       </c>
       <c r="P12">
-        <v>36.3474988627501</v>
+        <v>114.5512528823436</v>
       </c>
       <c r="Q12">
-        <v>2.536162757911322</v>
+        <v>2.019271619330258</v>
       </c>
       <c r="R12">
-        <v>330.5785567280119</v>
+        <v>517.0344734080991</v>
       </c>
       <c r="S12">
-        <v>12.63110923486954</v>
+        <v>7.532836162698011</v>
       </c>
       <c r="T12">
-        <v>26.25319688488984</v>
+        <v>17.10118079173836</v>
       </c>
       <c r="U12">
-        <v>3.26778776771335</v>
+        <v>2.839147513273067</v>
       </c>
       <c r="V12">
-        <v>290.1501792704358</v>
+        <v>499.8365701441635</v>
       </c>
       <c r="W12">
-        <v>646.6453178623392</v>
+        <v>373.079776814891</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>557.1600609601526</v>
+        <v>231.5772233349564</v>
       </c>
       <c r="Z12">
-        <v>1.160609604263408</v>
+        <v>1.611038302654071</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>443.7766035327843</v>
+        <v>819.0208369161668</v>
       </c>
       <c r="H13">
-        <v>28.45567608472152</v>
+        <v>85.60856036342015</v>
       </c>
       <c r="I13">
-        <v>415.3209274480628</v>
+        <v>733.4122765527467</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>559.5363619017139</v>
+        <v>843.3131499511071</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.7422590482529114</v>
+        <v>0.8696796398766791</v>
       </c>
       <c r="O13">
-        <v>602.5605061983042</v>
+        <v>943.490178526396</v>
       </c>
       <c r="P13">
-        <v>43.02414429659054</v>
+        <v>100.1770285752892</v>
       </c>
       <c r="Q13">
-        <v>2.639426632164311</v>
+        <v>2.242647048505448</v>
       </c>
       <c r="R13">
-        <v>445.9772896192123</v>
+        <v>618.6514324886887</v>
       </c>
       <c r="S13">
-        <v>14.00517119049487</v>
+        <v>9.418228828950594</v>
       </c>
       <c r="T13">
-        <v>15.59536319613428</v>
+        <v>9.56704368627752</v>
       </c>
       <c r="U13">
-        <v>2.746973639056564</v>
+        <v>2.258324243036343</v>
       </c>
       <c r="V13">
-        <v>337.1539353618004</v>
+        <v>540.0803892725947</v>
       </c>
       <c r="W13">
-        <v>659.0691202306068</v>
+        <v>340.9777711259229</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>514.8536857769557</v>
+        <v>231.0768977275625</v>
       </c>
       <c r="Z13">
-        <v>1.280109550417258</v>
+        <v>1.475603032926003</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>523.222960918493</v>
+        <v>783.8114093036298</v>
       </c>
       <c r="H14">
-        <v>41.53218095927446</v>
+        <v>80.59038446409291</v>
       </c>
       <c r="I14">
-        <v>481.6907799592185</v>
+        <v>703.2210248395369</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>576.3982978674983</v>
+        <v>795.4259820782245</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
-        <v>0.8356908438857829</v>
+        <v>0.8840810341676519</v>
       </c>
       <c r="O14">
-        <v>650.3515440062891</v>
+        <v>957.4347023353964</v>
       </c>
       <c r="P14">
-        <v>73.95324613879065</v>
+        <v>162.0087202571721</v>
       </c>
       <c r="Q14">
-        <v>2.174079969029318</v>
+        <v>1.77660736020334</v>
       </c>
       <c r="R14">
-        <v>415.618026792459</v>
+        <v>507.6000972522086</v>
       </c>
       <c r="S14">
-        <v>8.794090563458859</v>
+        <v>5.909772639494763</v>
       </c>
       <c r="T14">
-        <v>12.59801312701478</v>
+        <v>9.725867602143746</v>
       </c>
       <c r="U14">
-        <v>2.53353911319116</v>
+        <v>2.27478909911326</v>
       </c>
       <c r="V14">
-        <v>376.4673750427635</v>
+        <v>519.8948967672717</v>
       </c>
       <c r="W14">
-        <v>583.1686219137119</v>
+        <v>361.6383770333936</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>488.4611040054322</v>
+        <v>269.433419794706</v>
       </c>
       <c r="Z14">
-        <v>1.193889579194061</v>
+        <v>1.342217967277196</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791371</v>
       </c>
       <c r="H15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="I15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194118</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194123</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="O15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791371</v>
       </c>
       <c r="P15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="Q15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="R15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007488</v>
       </c>
       <c r="S15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117225</v>
       </c>
       <c r="T15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117225</v>
       </c>
       <c r="U15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="V15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007488</v>
       </c>
       <c r="W15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846097</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846092</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>345.9535627495395</v>
+        <v>619.7097282447274</v>
       </c>
       <c r="H16">
-        <v>20.79493638603721</v>
+        <v>53.51885839186607</v>
       </c>
       <c r="I16">
-        <v>325.1586263635023</v>
+        <v>566.1908698528614</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>508.3516510218024</v>
+        <v>727.451038638618</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.6396332651028545</v>
+        <v>0.778321618610174</v>
       </c>
       <c r="O16">
-        <v>632.4080070080846</v>
+        <v>938.0741452307429</v>
       </c>
       <c r="P16">
-        <v>124.0563559862822</v>
+        <v>210.6231065921253</v>
       </c>
       <c r="Q16">
-        <v>1.628798820439356</v>
+        <v>1.493758680377828</v>
       </c>
       <c r="R16">
-        <v>306.2888047233412</v>
+        <v>412.830944878486</v>
       </c>
       <c r="S16">
-        <v>5.097747729088661</v>
+        <v>4.453804525100549</v>
       </c>
       <c r="T16">
-        <v>16.63643284726903</v>
+        <v>11.5792777885358</v>
       </c>
       <c r="U16">
-        <v>2.811595040252754</v>
+        <v>2.449217103061406</v>
       </c>
       <c r="V16">
-        <v>266.6916863581485</v>
+        <v>435.1115665431815</v>
       </c>
       <c r="W16">
-        <v>723.0984194436203</v>
+        <v>482.0661759542611</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>539.9053947853201</v>
+        <v>320.8060071685045</v>
       </c>
       <c r="Z16">
-        <v>1.339305786583485</v>
+        <v>1.502671911318213</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>496.794992524222</v>
+        <v>915.6506871774894</v>
       </c>
       <c r="H17">
-        <v>28.16819565386837</v>
+        <v>92.84618910964667</v>
       </c>
       <c r="I17">
-        <v>468.6267968703537</v>
+        <v>822.8044980678428</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>531.2304749017627</v>
+        <v>838.8259556884279</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.8821534513000484</v>
+        <v>0.980900140831436</v>
       </c>
       <c r="O17">
-        <v>633.5311703956719</v>
+        <v>955.7555342169704</v>
       </c>
       <c r="P17">
-        <v>102.300695493909</v>
+        <v>116.9295785285421</v>
       </c>
       <c r="Q17">
-        <v>1.823392730510275</v>
+        <v>2.100930302334827</v>
       </c>
       <c r="R17">
-        <v>344.696130412024</v>
+        <v>593.1650609185746</v>
       </c>
       <c r="S17">
-        <v>6.192833463516311</v>
+        <v>8.17377045435663</v>
       </c>
       <c r="T17">
-        <v>17.63673465737223</v>
+        <v>9.86201691160584</v>
       </c>
       <c r="U17">
-        <v>2.86998392331736</v>
+        <v>2.288690702625635</v>
       </c>
       <c r="V17">
-        <v>387.7845281948935</v>
+        <v>610.308288278373</v>
       </c>
       <c r="W17">
-        <v>648.2642632241575</v>
+        <v>294.0865620266684</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>585.6605851927485</v>
+        <v>278.0651044060833</v>
       </c>
       <c r="Z17">
-        <v>1.10689412880808</v>
+        <v>1.057617649128628</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>524.0697766251413</v>
+        <v>871.0917501615635</v>
       </c>
       <c r="H18">
-        <v>35.80807703805163</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="I18">
-        <v>488.2616995870897</v>
+        <v>785.1077452661738</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>535.7339030297123</v>
+        <v>785.1077452661741</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
-        <v>0.9113884651052413</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O18">
-        <v>587.2049647591274</v>
+        <v>871.0917501615638</v>
       </c>
       <c r="P18">
-        <v>51.4710617294152</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="Q18">
-        <v>2.434354190662392</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="R18">
-        <v>410.4351082108677</v>
+        <v>586.0043855167559</v>
       </c>
       <c r="S18">
-        <v>11.40844865112906</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="T18">
-        <v>14.63551857499178</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="U18">
-        <v>2.683451353406879</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="V18">
-        <v>392.1724667964323</v>
+        <v>586.0043855167555</v>
       </c>
       <c r="W18">
-        <v>624.7594370840707</v>
+        <v>327.9133914049866</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>577.287233641448</v>
+        <v>327.9133914049862</v>
       </c>
       <c r="Z18">
-        <v>1.082233246599227</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>362.2859290093438</v>
+        <v>748.6274853469897</v>
       </c>
       <c r="H19">
-        <v>23.27351111101818</v>
+        <v>78.06434851046414</v>
       </c>
       <c r="I19">
-        <v>339.0124178983256</v>
+        <v>670.5631368365256</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>477.5124348958979</v>
+        <v>736.5488908300896</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N19">
-        <v>0.7099551616330859</v>
+        <v>0.9104122552961852</v>
       </c>
       <c r="O19">
-        <v>569.5295319469429</v>
+        <v>857.7714374842921</v>
       </c>
       <c r="P19">
-        <v>92.01709705104507</v>
+        <v>121.2225466542023</v>
       </c>
       <c r="Q19">
-        <v>1.8228362401689</v>
+        <v>1.956709589287351</v>
       </c>
       <c r="R19">
-        <v>309.7803356761141</v>
+        <v>499.3515713539787</v>
       </c>
       <c r="S19">
-        <v>6.189388170233247</v>
+        <v>7.07600575271825</v>
       </c>
       <c r="T19">
-        <v>15.56644922552446</v>
+        <v>9.589876808446558</v>
       </c>
       <c r="U19">
-        <v>2.745117907527457</v>
+        <v>2.260708042978277</v>
       </c>
       <c r="V19">
-        <v>275.1238857764304</v>
+        <v>494.08243628906</v>
       </c>
       <c r="W19">
-        <v>702.8372052561031</v>
+        <v>371.286486317903</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>564.3371882585307</v>
+        <v>305.300732324339</v>
       </c>
       <c r="Z19">
-        <v>1.245420680896407</v>
+        <v>1.216133625003767</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>544.0721085177216</v>
+        <v>921.0519123928294</v>
       </c>
       <c r="H20">
-        <v>47.52933661296701</v>
+        <v>117.5964776662234</v>
       </c>
       <c r="I20">
-        <v>496.5427719047546</v>
+        <v>803.455434726606</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>535.7216796635391</v>
+        <v>803.4554347266061</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>0.9268670482340925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O20">
-        <v>596.1580166967849</v>
+        <v>921.0519123928294</v>
       </c>
       <c r="P20">
-        <v>60.43633703324576</v>
+        <v>117.5964776662234</v>
       </c>
       <c r="Q20">
-        <v>2.28891523005202</v>
+        <v>2.058257316716084</v>
       </c>
       <c r="R20">
-        <v>397.388027379586</v>
+        <v>561.411624150062</v>
       </c>
       <c r="S20">
-        <v>9.86423145348536</v>
+        <v>7.832308676855702</v>
       </c>
       <c r="T20">
-        <v>11.44707978880747</v>
+        <v>7.832308676855702</v>
       </c>
       <c r="U20">
-        <v>2.437734657193122</v>
+        <v>2.058257316716084</v>
       </c>
       <c r="V20">
-        <v>380.678860809927</v>
+        <v>561.411624150062</v>
       </c>
       <c r="W20">
-        <v>567.9934468456781</v>
+        <v>261.0807840238267</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>528.8145390868935</v>
+        <v>261.0807840238266</v>
       </c>
       <c r="Z20">
-        <v>1.074088181891585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>439.9008699484683</v>
+        <v>769.7564096142919</v>
       </c>
       <c r="H21">
-        <v>51.64135446000994</v>
+        <v>106.0952891696228</v>
       </c>
       <c r="I21">
-        <v>388.2595154884584</v>
+        <v>663.6611204446691</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K21">
-        <v>447.0576688914981</v>
+        <v>692.8004626602412</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N21">
-        <v>0.868477475067517</v>
+        <v>0.9579397766224321</v>
       </c>
       <c r="O21">
-        <v>520.7135389543884</v>
+        <v>821.2667208296891</v>
       </c>
       <c r="P21">
-        <v>73.65587006289044</v>
+        <v>128.4662581694481</v>
       </c>
       <c r="Q21">
-        <v>1.955796219403232</v>
+        <v>1.855181642294783</v>
       </c>
       <c r="R21">
-        <v>303.0017966856411</v>
+        <v>454.4722188499787</v>
       </c>
       <c r="S21">
-        <v>7.069545692825046</v>
+        <v>6.392859358808688</v>
       </c>
       <c r="T21">
-        <v>8.518383658761682</v>
+        <v>7.255330709204465</v>
       </c>
       <c r="U21">
-        <v>2.14222661143079</v>
+        <v>1.981736468922951</v>
       </c>
       <c r="V21">
-        <v>277.6320317138949</v>
+        <v>453.4082167163015</v>
       </c>
       <c r="W21">
-        <v>608.9584477521705</v>
+        <v>333.5568427959597</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>550.1602943491307</v>
+        <v>304.4175005803876</v>
       </c>
       <c r="Z21">
-        <v>1.106874585474405</v>
+        <v>1.095721639393322</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>609.8456741314561</v>
+        <v>816.5923139412047</v>
       </c>
       <c r="H22">
-        <v>5.768405174700914</v>
+        <v>11.29131395966505</v>
       </c>
       <c r="I22">
-        <v>604.0772689567552</v>
+        <v>805.3009999815397</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>644.5780598555782</v>
+        <v>982.7100157803112</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.9371669725961547</v>
+        <v>0.8194696167231982</v>
       </c>
       <c r="O22">
-        <v>669.3754609036663</v>
+        <v>1016.867858430217</v>
       </c>
       <c r="P22">
-        <v>24.79740104808792</v>
+        <v>34.15784264990594</v>
       </c>
       <c r="Q22">
-        <v>3.295606278528671</v>
+        <v>3.393490242243627</v>
       </c>
       <c r="R22">
-        <v>562.8555892703064</v>
+        <v>866.7957100517619</v>
       </c>
       <c r="S22">
-        <v>26.99377485590493</v>
+        <v>29.76967453279773</v>
       </c>
       <c r="T22">
-        <v>105.7217126158403</v>
+        <v>72.32039750716741</v>
       </c>
       <c r="U22">
-        <v>4.660810289149337</v>
+        <v>4.28110621257279</v>
       </c>
       <c r="V22">
-        <v>577.1918267665269</v>
+        <v>756.9616856407077</v>
       </c>
       <c r="W22">
-        <v>432.6924628624395</v>
+        <v>231.468731837655</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>392.1916719636165</v>
+        <v>54.05971603888349</v>
       </c>
       <c r="Z22">
-        <v>1.103267850375416</v>
+        <v>4.281723042554768</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>410.423332401177</v>
+        <v>782.3595533653828</v>
       </c>
       <c r="H23">
-        <v>4.418906006300054</v>
+        <v>12.01988170199016</v>
       </c>
       <c r="I23">
-        <v>406.004426394877</v>
+        <v>770.3396716633927</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>636.3213556664277</v>
+        <v>943.5230936858823</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.6380493484611454</v>
+        <v>0.8164502562985005</v>
       </c>
       <c r="O23">
-        <v>644.405082190731</v>
+        <v>966.6805158760933</v>
       </c>
       <c r="P23">
-        <v>8.083726524303541</v>
+        <v>23.15742219021087</v>
       </c>
       <c r="Q23">
-        <v>4.37847456825939</v>
+        <v>3.73155271185724</v>
       </c>
       <c r="R23">
-        <v>600.9269646630006</v>
+        <v>857.109952112378</v>
       </c>
       <c r="S23">
-        <v>79.71633877684279</v>
+        <v>41.74387407786387</v>
       </c>
       <c r="T23">
-        <v>92.87894601424757</v>
+        <v>65.08878978699482</v>
       </c>
       <c r="U23">
-        <v>4.531296989502763</v>
+        <v>4.175752334493867</v>
       </c>
       <c r="V23">
-        <v>385.9810509116339</v>
+        <v>720.1476225859672</v>
       </c>
       <c r="W23">
-        <v>620.9034323754857</v>
+        <v>256.5681871069701</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>390.586503103935</v>
+        <v>83.38476508448048</v>
       </c>
       <c r="Z23">
-        <v>1.589669452070809</v>
+        <v>3.076919229154516</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>501.1636451416302</v>
+        <v>862.1440450987147</v>
       </c>
       <c r="H24">
-        <v>5.95923029688861</v>
+        <v>16.39533940260821</v>
       </c>
       <c r="I24">
-        <v>495.2044148447416</v>
+        <v>845.7487056961065</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>608.129293294249</v>
+        <v>927.0714845303048</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.8143077801140099</v>
+        <v>0.9122799264229339</v>
       </c>
       <c r="O24">
-        <v>623.4004120167189</v>
+        <v>981.9027636502254</v>
       </c>
       <c r="P24">
-        <v>15.27111872246999</v>
+        <v>54.83127911992045</v>
       </c>
       <c r="Q24">
-        <v>3.709225648936593</v>
+        <v>2.885231466788694</v>
       </c>
       <c r="R24">
-        <v>551.4852680409074</v>
+        <v>768.8705526492366</v>
       </c>
       <c r="S24">
-        <v>40.82218358367189</v>
+        <v>17.90771215646318</v>
       </c>
       <c r="T24">
-        <v>84.09872083703397</v>
+        <v>52.5847025137865</v>
       </c>
       <c r="U24">
-        <v>4.431991356839851</v>
+        <v>3.962425250711271</v>
       </c>
       <c r="V24">
-        <v>468.793157675513</v>
+        <v>780.7833988532303</v>
       </c>
       <c r="W24">
-        <v>550.6721822454336</v>
+        <v>200.1278913940687</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>437.7473037959262</v>
+        <v>118.8051125598704</v>
       </c>
       <c r="Z24">
-        <v>1.257968187285859</v>
+        <v>1.684505717657703</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>478.2221813293194</v>
+        <v>669.9338351664841</v>
       </c>
       <c r="H25">
-        <v>4.360517202940642</v>
+        <v>9.145609537962653</v>
       </c>
       <c r="I25">
-        <v>473.8616641263788</v>
+        <v>660.7882256285214</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>677.9515171403351</v>
+        <v>933.5177083083154</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>0.6989609907876201</v>
+        <v>0.7078475531288809</v>
       </c>
       <c r="O25">
-        <v>701.7509092685725</v>
+        <v>986.0528152353997</v>
       </c>
       <c r="P25">
-        <v>23.79939212823739</v>
+        <v>52.53510692708451</v>
       </c>
       <c r="Q25">
-        <v>3.383918471436072</v>
+        <v>2.932228268827399</v>
       </c>
       <c r="R25">
-        <v>597.4163145086424</v>
+        <v>779.4727826708479</v>
       </c>
       <c r="S25">
-        <v>29.48608542131471</v>
+        <v>18.76940721951857</v>
       </c>
       <c r="T25">
-        <v>109.6709768755909</v>
+        <v>73.25196121544937</v>
       </c>
       <c r="U25">
-        <v>4.697484764141865</v>
+        <v>4.293905021811098</v>
       </c>
       <c r="V25">
-        <v>453.3782010017866</v>
+        <v>621.5178469059401</v>
       </c>
       <c r="W25">
-        <v>551.2395214127416</v>
+        <v>364.312959910599</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>347.1496683987854</v>
+        <v>91.5834772308051</v>
       </c>
       <c r="Z25">
-        <v>1.58790162167031</v>
+        <v>3.977933257463808</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>577.6449932484865</v>
+        <v>859.3334629826128</v>
       </c>
       <c r="H26">
-        <v>3.803949928506149</v>
+        <v>12.58094082587115</v>
       </c>
       <c r="I26">
-        <v>573.8410433199803</v>
+        <v>846.7525221567416</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>638.7183667834788</v>
+        <v>924.4436594118266</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.8984257744297941</v>
+        <v>0.9159590349675656</v>
       </c>
       <c r="O26">
-        <v>680.5706999701894</v>
+        <v>955.3168129075227</v>
       </c>
       <c r="P26">
-        <v>41.8523331867104</v>
+        <v>30.87315349569634</v>
       </c>
       <c r="Q26">
-        <v>2.788784164289214</v>
+        <v>3.432156039378889</v>
       </c>
       <c r="R26">
-        <v>522.0012427538251</v>
+        <v>818.4821791869008</v>
       </c>
       <c r="S26">
-        <v>16.26123678539133</v>
+        <v>30.94328582406369</v>
       </c>
       <c r="T26">
-        <v>151.8539949539593</v>
+        <v>68.3043879528866</v>
       </c>
       <c r="U26">
-        <v>5.02291949969992</v>
+        <v>4.223974009796949</v>
       </c>
       <c r="V26">
-        <v>554.7341090482046</v>
+        <v>793.6109550894685</v>
       </c>
       <c r="W26">
-        <v>429.8935761357043</v>
+        <v>156.9820972989429</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>365.0162526722057</v>
+        <v>79.29096004385792</v>
       </c>
       <c r="Z26">
-        <v>1.177738177378529</v>
+        <v>1.979823389855691</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>605.8637417092405</v>
+        <v>973.1696031866134</v>
       </c>
       <c r="H27">
-        <v>6.96271056472945</v>
+        <v>16.51371577431042</v>
       </c>
       <c r="I27">
-        <v>598.901031144511</v>
+        <v>956.6558874123029</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>663.2754464175723</v>
+        <v>981.4207870781896</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0.9029446731056381</v>
+        <v>0.9747662776334555</v>
       </c>
       <c r="O27">
-        <v>690.9750963363987</v>
+        <v>1036.222599435189</v>
       </c>
       <c r="P27">
-        <v>27.69964991882632</v>
+        <v>54.80181235699949</v>
       </c>
       <c r="Q27">
-        <v>3.216684008280148</v>
+        <v>2.939613998443961</v>
       </c>
       <c r="R27">
-        <v>574.1744254887252</v>
+        <v>820.3246123334549</v>
       </c>
       <c r="S27">
-        <v>24.94526459219874</v>
+        <v>18.90854617516749</v>
       </c>
       <c r="T27">
-        <v>87.01550008100652</v>
+        <v>58.93098903279694</v>
       </c>
       <c r="U27">
-        <v>4.466086264636296</v>
+        <v>4.076367081888979</v>
       </c>
       <c r="V27">
-        <v>567.8049651267347</v>
+        <v>889.3399200302332</v>
       </c>
       <c r="W27">
-        <v>481.0594051907211</v>
+        <v>123.3045489229291</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>416.6849899176598</v>
+        <v>98.53964925704247</v>
       </c>
       <c r="Z27">
-        <v>1.154491802754359</v>
+        <v>1.251319137551292</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>426.1399976938355</v>
+        <v>733.9452498039926</v>
       </c>
       <c r="H28">
-        <v>3.029524242492707</v>
+        <v>12.7539439352679</v>
       </c>
       <c r="I28">
-        <v>423.1104734513428</v>
+        <v>721.1913058687247</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>695.8117986410916</v>
+        <v>1008.36401857119</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.6080817748098986</v>
+        <v>0.7152092821505299</v>
       </c>
       <c r="O28">
-        <v>730.0040201670332</v>
+        <v>1050.433754446795</v>
       </c>
       <c r="P28">
-        <v>34.19222152594156</v>
+        <v>42.06973587560447</v>
       </c>
       <c r="Q28">
-        <v>3.061051863767357</v>
+        <v>3.217629837952286</v>
       </c>
       <c r="R28">
-        <v>591.1476352127619</v>
+        <v>872.9991811430734</v>
       </c>
       <c r="S28">
-        <v>21.3500026493798</v>
+        <v>24.96886972508718</v>
       </c>
       <c r="T28">
-        <v>140.6623494595988</v>
+        <v>57.54653254939026</v>
       </c>
       <c r="U28">
-        <v>4.946362333851416</v>
+        <v>4.052593882256114</v>
       </c>
       <c r="V28">
-        <v>408.1253488487871</v>
+        <v>669.5047507020206</v>
       </c>
       <c r="W28">
-        <v>635.3022776987596</v>
+        <v>337.2214452813777</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>362.6009525090108</v>
+        <v>50.048732578912</v>
       </c>
       <c r="Z28">
-        <v>1.752070074010553</v>
+        <v>6.73786183795323</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>463.1021980595326</v>
+        <v>768.5222863592539</v>
       </c>
       <c r="H29">
-        <v>3.010924169110885</v>
+        <v>11.85591772203903</v>
       </c>
       <c r="I29">
-        <v>460.0912738904217</v>
+        <v>756.6663686372149</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>578.3340644272032</v>
+        <v>893.9732109589662</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.7955458655995092</v>
+        <v>0.846408325620337</v>
       </c>
       <c r="O29">
-        <v>606.8227363160931</v>
+        <v>949.3250548656964</v>
       </c>
       <c r="P29">
-        <v>28.48867188889009</v>
+        <v>55.35184390673014</v>
       </c>
       <c r="Q29">
-        <v>3.058730185304895</v>
+        <v>2.842041291348614</v>
       </c>
       <c r="R29">
-        <v>491.194903781408</v>
+        <v>736.6609850237561</v>
       </c>
       <c r="S29">
-        <v>21.30049230384586</v>
+        <v>17.15073948512616</v>
       </c>
       <c r="T29">
-        <v>153.8073269365283</v>
+        <v>64.82183027726683</v>
       </c>
       <c r="U29">
-        <v>5.035700695316072</v>
+        <v>4.171642433619406</v>
       </c>
       <c r="V29">
-        <v>444.9291609584861</v>
+        <v>707.2077191784565</v>
       </c>
       <c r="W29">
-        <v>531.4930432666295</v>
+        <v>234.9179485198364</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>413.2502527298481</v>
+        <v>97.61110619808505</v>
       </c>
       <c r="Z29">
-        <v>1.286128779730184</v>
+        <v>2.406672331354493</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>606.1073065320993</v>
+        <v>970.3596767595042</v>
       </c>
       <c r="H30">
-        <v>4.236577616276573</v>
+        <v>9.316716904399776</v>
       </c>
       <c r="I30">
-        <v>601.8707289158227</v>
+        <v>961.0429598551044</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>649.8648544697025</v>
+        <v>989.6937374591025</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9261475286380219</v>
+        <v>0.9710508650104679</v>
       </c>
       <c r="O30">
-        <v>664.6292723477798</v>
+        <v>1024.934947607054</v>
       </c>
       <c r="P30">
-        <v>14.764417878077</v>
+        <v>35.24121014795073</v>
       </c>
       <c r="Q30">
-        <v>3.807009311392282</v>
+        <v>3.370168283150675</v>
       </c>
       <c r="R30">
-        <v>593.6565781305769</v>
+        <v>870.9249287586318</v>
       </c>
       <c r="S30">
-        <v>45.01560967971903</v>
+        <v>29.08342089571103</v>
       </c>
       <c r="T30">
-        <v>143.0653138994754</v>
+        <v>104.1525342796727</v>
       </c>
       <c r="U30">
-        <v>4.963301266541461</v>
+        <v>4.645856500389073</v>
       </c>
       <c r="V30">
-        <v>580.843317867156</v>
+        <v>917.758830062514</v>
       </c>
       <c r="W30">
-        <v>463.4418828697468</v>
+        <v>104.2696519304651</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>415.447757315867</v>
+        <v>75.61887432646699</v>
       </c>
       <c r="Z30">
-        <v>1.115523852779857</v>
+        <v>1.378883947416422</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>748.0266990740787</v>
+        <v>1013.434927927331</v>
       </c>
       <c r="H31">
-        <v>4.674396162609115</v>
+        <v>11.51422911349858</v>
       </c>
       <c r="I31">
-        <v>743.3523029114696</v>
+        <v>1001.920698813832</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>779.614522362009</v>
+        <v>1130.697875296634</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>0.9534869882353201</v>
+        <v>0.8861082351914588</v>
       </c>
       <c r="O31">
-        <v>803.4367744481551</v>
+        <v>1167.002855257488</v>
       </c>
       <c r="P31">
-        <v>23.82225208614589</v>
+        <v>36.30497996085406</v>
       </c>
       <c r="Q31">
-        <v>3.518278388924488</v>
+        <v>3.470239158082579</v>
       </c>
       <c r="R31">
-        <v>695.8012076718109</v>
+        <v>1004.710912203074</v>
       </c>
       <c r="S31">
-        <v>33.72631485649516</v>
+        <v>32.14442912558585</v>
       </c>
       <c r="T31">
-        <v>160.0263805318014</v>
+        <v>88.01587305043647</v>
       </c>
       <c r="U31">
-        <v>5.075338679966649</v>
+        <v>4.47751717378563</v>
       </c>
       <c r="V31">
-        <v>719.6281592618918</v>
+        <v>950.36554021524</v>
       </c>
       <c r="W31">
-        <v>437.5196765034983</v>
+        <v>178.9512806011355</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>401.2574570529589</v>
+        <v>50.17410411833407</v>
       </c>
       <c r="Z31">
-        <v>1.090371453073714</v>
+        <v>3.566606394786531</v>
       </c>
     </row>
   </sheetData>
